--- a/df.xlsx
+++ b/df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>1y Target Est</t>
   </si>
@@ -82,7 +82,7 @@
     <t>30.89</t>
   </si>
   <si>
-    <t>19.05 - 30.12</t>
+    <t>19.18 - 30.12</t>
   </si>
   <si>
     <t>2.0000 - 2.6900</t>
@@ -91,22 +91,31 @@
     <t>18.85 - 26.84</t>
   </si>
   <si>
-    <t>29.84 x 0</t>
-  </si>
-  <si>
-    <t>2.4300 x 0</t>
-  </si>
-  <si>
-    <t>25.62 x 0</t>
-  </si>
-  <si>
-    <t>5,335,135</t>
-  </si>
-  <si>
-    <t>30,455,269</t>
-  </si>
-  <si>
-    <t>3,203,491</t>
+    <t>29.94 x 0</t>
+  </si>
+  <si>
+    <t>2.4500 x 0</t>
+  </si>
+  <si>
+    <t>25.71 x 0</t>
+  </si>
+  <si>
+    <t>25.72 x 0</t>
+  </si>
+  <si>
+    <t>29.93 x 0</t>
+  </si>
+  <si>
+    <t>25.75 x 0</t>
+  </si>
+  <si>
+    <t>5,358,199</t>
+  </si>
+  <si>
+    <t>30,362,780</t>
+  </si>
+  <si>
+    <t>3,209,329</t>
   </si>
   <si>
     <t>1.12</t>
@@ -118,13 +127,103 @@
     <t>0.97</t>
   </si>
   <si>
-    <t>29.83 x 0</t>
-  </si>
-  <si>
-    <t>2.4200 x 0</t>
-  </si>
-  <si>
-    <t>25.55 x 0</t>
+    <t>2.4400 x 0</t>
+  </si>
+  <si>
+    <t>25.70 x 0</t>
+  </si>
+  <si>
+    <t>29.92 x 0</t>
+  </si>
+  <si>
+    <t>25.74 x 0</t>
+  </si>
+  <si>
+    <t>29.93</t>
+  </si>
+  <si>
+    <t>2.4400</t>
+  </si>
+  <si>
+    <t>25.74</t>
+  </si>
+  <si>
+    <t>29.92 - 30.03</t>
+  </si>
+  <si>
+    <t>2.4300 - 2.4700</t>
+  </si>
+  <si>
+    <t>25.66 - 25.89</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>0.1020</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>Aug 05, 2021</t>
+  </si>
+  <si>
+    <t>May 27, 2021</t>
+  </si>
+  <si>
+    <t>Aug 04, 2021 - Aug 05, 2021</t>
+  </si>
+  <si>
+    <t>May 10, 2021</t>
+  </si>
+  <si>
+    <t>Nov 26, 2020</t>
+  </si>
+  <si>
+    <t>May 06, 2021</t>
+  </si>
+  <si>
+    <t>0.72 (2.41%)</t>
+  </si>
+  <si>
+    <t>0.10 (4.20%)</t>
+  </si>
+  <si>
+    <t>0.78 (3.04%)</t>
+  </si>
+  <si>
+    <t>76.247B</t>
+  </si>
+  <si>
+    <t>39.833B</t>
+  </si>
+  <si>
+    <t>42.975B</t>
+  </si>
+  <si>
+    <t>76.222B</t>
+  </si>
+  <si>
+    <t>43.025B</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>25.72</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>23.92</t>
+  </si>
+  <si>
+    <t>14.49</t>
   </si>
   <si>
     <t>29.83</t>
@@ -136,94 +235,37 @@
     <t>25.62</t>
   </si>
   <si>
-    <t>29.77 - 29.95</t>
-  </si>
-  <si>
-    <t>2.4100 - 2.4500</t>
-  </si>
-  <si>
-    <t>25.42 - 25.65</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>0.1020</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>Aug 04, 2021</t>
-  </si>
-  <si>
-    <t>May 26, 2021</t>
-  </si>
-  <si>
-    <t>Aug 03, 2021 - Aug 04, 2021</t>
-  </si>
-  <si>
-    <t>May 09, 2021</t>
-  </si>
-  <si>
-    <t>Nov 25, 2020</t>
-  </si>
-  <si>
-    <t>May 05, 2021</t>
-  </si>
-  <si>
-    <t>0.72 (2.43%)</t>
-  </si>
-  <si>
-    <t>0.10 (4.21%)</t>
-  </si>
-  <si>
-    <t>0.78 (3.06%)</t>
-  </si>
-  <si>
-    <t>75.967B</t>
-  </si>
-  <si>
-    <t>39.67B</t>
-  </si>
-  <si>
-    <t>42.824B</t>
-  </si>
-  <si>
-    <t>29.88</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>25.57</t>
-  </si>
-  <si>
-    <t>13.97</t>
-  </si>
-  <si>
-    <t>23.82</t>
-  </si>
-  <si>
-    <t>14.43</t>
-  </si>
-  <si>
-    <t>29.62</t>
-  </si>
-  <si>
-    <t>2.4200</t>
-  </si>
-  <si>
-    <t>25.47</t>
-  </si>
-  <si>
-    <t>5,284,900</t>
-  </si>
-  <si>
-    <t>20,905,600</t>
-  </si>
-  <si>
-    <t>2,261,300</t>
+    <t>1,679,700</t>
+  </si>
+  <si>
+    <t>8,604,000</t>
+  </si>
+  <si>
+    <t>735,400</t>
+  </si>
+  <si>
+    <t>1,724,200</t>
+  </si>
+  <si>
+    <t>8,648,200</t>
+  </si>
+  <si>
+    <t>736,200</t>
+  </si>
+  <si>
+    <t>8,667,900</t>
+  </si>
+  <si>
+    <t>744,800</t>
+  </si>
+  <si>
+    <t>1,790,300</t>
+  </si>
+  <si>
+    <t>8,785,800</t>
+  </si>
+  <si>
+    <t>789,200</t>
   </si>
   <si>
     <t>DBS</t>
@@ -594,255 +636,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>30.14</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>1.12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>29.94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>2.14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>14.02</v>
+      </c>
+      <c r="P2">
+        <v>29.83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44340.46412480324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>3.7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>0.77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>2.44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>0.102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3">
+        <v>2.45</v>
+      </c>
+      <c r="O3">
+        <v>23.92</v>
+      </c>
+      <c r="P3">
+        <v>2.43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="2">
+        <v>44340.46413134259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>30.89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>0.97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>25.71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>1.78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <v>25.72</v>
+      </c>
+      <c r="O4">
+        <v>14.48</v>
+      </c>
+      <c r="P4">
+        <v>25.62</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="2">
+        <v>44340.46413723379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>30.14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>1.12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>29.93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>2.14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>14.01</v>
+      </c>
+      <c r="P5">
+        <v>29.83</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44340.46567234954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>3.7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>0.77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>2.44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>0.102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>2.45</v>
+      </c>
+      <c r="O6">
+        <v>23.92</v>
+      </c>
+      <c r="P6">
+        <v>2.43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="2">
+        <v>44340.46567878472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>30.89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>0.97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>25.71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>1.78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7">
+        <v>25.72</v>
+      </c>
+      <c r="O7">
+        <v>14.48</v>
+      </c>
+      <c r="P7">
+        <v>25.62</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="2">
+        <v>44340.46568590277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>30.14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1.12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>29.93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>2.14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>14.01</v>
+      </c>
+      <c r="P8">
+        <v>29.83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="2">
+        <v>44340.46725055556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>3.7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0.77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9">
+        <v>2.44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>0.102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>2.45</v>
+      </c>
+      <c r="O9">
+        <v>23.92</v>
+      </c>
+      <c r="P9">
+        <v>2.43</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="2">
+        <v>44340.46725723379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>30.89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>0.97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>25.71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>1.78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10">
+        <v>25.72</v>
+      </c>
+      <c r="O10">
+        <v>14.48</v>
+      </c>
+      <c r="P10">
+        <v>25.62</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="2">
+        <v>44340.46726291667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="2">
+        <v>44340.48304916389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="2">
+        <v>44340.48305499706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I13" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J13" t="s">
         <v>52</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K13" t="s">
         <v>55</v>
       </c>
-      <c r="O2" t="s">
+      <c r="L13" t="s">
         <v>58</v>
       </c>
-      <c r="P2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="2">
-        <v>44337.79691467231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="2">
-        <v>44337.79692130857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="M13" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="N13" t="s">
         <v>66</v>
       </c>
-      <c r="R4" t="s">
+      <c r="O13" t="s">
         <v>69</v>
       </c>
-      <c r="S4" t="s">
+      <c r="P13" t="s">
         <v>72</v>
       </c>
-      <c r="T4" s="2">
-        <v>44337.79692673036</v>
+      <c r="Q13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="2">
+        <v>44340.48306048458</v>
       </c>
     </row>
   </sheetData>

--- a/df.xlsx
+++ b/df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="108">
   <si>
     <t>1y Target Est</t>
   </si>
@@ -109,6 +109,18 @@
     <t>25.75 x 0</t>
   </si>
   <si>
+    <t>29.92 x 0</t>
+  </si>
+  <si>
+    <t>25.76 x 0</t>
+  </si>
+  <si>
+    <t>29.91 x 0</t>
+  </si>
+  <si>
+    <t>25.79 x 0</t>
+  </si>
+  <si>
     <t>5,358,199</t>
   </si>
   <si>
@@ -133,19 +145,22 @@
     <t>25.70 x 0</t>
   </si>
   <si>
-    <t>29.92 x 0</t>
-  </si>
-  <si>
     <t>25.74 x 0</t>
   </si>
   <si>
-    <t>29.93</t>
+    <t>29.90 x 0</t>
+  </si>
+  <si>
+    <t>25.77 x 0</t>
+  </si>
+  <si>
+    <t>29.90</t>
   </si>
   <si>
     <t>2.4400</t>
   </si>
   <si>
-    <t>25.74</t>
+    <t>25.78</t>
   </si>
   <si>
     <t>29.92 - 30.03</t>
@@ -157,6 +172,12 @@
     <t>25.66 - 25.89</t>
   </si>
   <si>
+    <t>29.91 - 30.03</t>
+  </si>
+  <si>
+    <t>29.90 - 30.03</t>
+  </si>
+  <si>
     <t>2.14</t>
   </si>
   <si>
@@ -208,6 +229,21 @@
     <t>43.025B</t>
   </si>
   <si>
+    <t>43.041B</t>
+  </si>
+  <si>
+    <t>76.196B</t>
+  </si>
+  <si>
+    <t>43.058B</t>
+  </si>
+  <si>
+    <t>76.145B</t>
+  </si>
+  <si>
+    <t>43.092B</t>
+  </si>
+  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -217,13 +253,13 @@
     <t>25.72</t>
   </si>
   <si>
-    <t>14.01</t>
+    <t>14.00</t>
   </si>
   <si>
     <t>23.92</t>
   </si>
   <si>
-    <t>14.49</t>
+    <t>14.52</t>
   </si>
   <si>
     <t>29.83</t>
@@ -266,6 +302,33 @@
   </si>
   <si>
     <t>789,200</t>
+  </si>
+  <si>
+    <t>1,795,800</t>
+  </si>
+  <si>
+    <t>8,810,900</t>
+  </si>
+  <si>
+    <t>790,300</t>
+  </si>
+  <si>
+    <t>1,822,800</t>
+  </si>
+  <si>
+    <t>8,834,900</t>
+  </si>
+  <si>
+    <t>805,300</t>
+  </si>
+  <si>
+    <t>1,834,700</t>
+  </si>
+  <si>
+    <t>8,868,400</t>
+  </si>
+  <si>
+    <t>817,600</t>
   </si>
   <si>
     <t>DBS</t>
@@ -636,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1.12</v>
@@ -724,22 +787,22 @@
         <v>29.94</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I2">
         <v>2.14</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N2">
         <v>30</v>
@@ -751,10 +814,10 @@
         <v>29.83</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="S2" s="2">
         <v>44340.46412480324</v>
@@ -771,34 +834,34 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0.77</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>2.44</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>0.102</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N3">
         <v>2.45</v>
@@ -810,10 +873,10 @@
         <v>2.43</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="R3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="S3" s="2">
         <v>44340.46413134259</v>
@@ -830,34 +893,34 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0.97</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>25.71</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <v>1.78</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <v>25.72</v>
@@ -869,10 +932,10 @@
         <v>25.62</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="S4" s="2">
         <v>44340.46413723379</v>
@@ -889,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>1.12</v>
@@ -901,22 +964,22 @@
         <v>29.93</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I5">
         <v>2.14</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N5">
         <v>30</v>
@@ -928,10 +991,10 @@
         <v>29.83</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="S5" s="2">
         <v>44340.46567234954</v>
@@ -948,34 +1011,34 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0.77</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>2.44</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I6">
         <v>0.102</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N6">
         <v>2.45</v>
@@ -987,10 +1050,10 @@
         <v>2.43</v>
       </c>
       <c r="Q6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="R6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="S6" s="2">
         <v>44340.46567878472</v>
@@ -1007,34 +1070,34 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0.97</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>25.71</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I7">
         <v>1.78</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>25.72</v>
@@ -1046,10 +1109,10 @@
         <v>25.62</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="S7" s="2">
         <v>44340.46568590277</v>
@@ -1066,7 +1129,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1.12</v>
@@ -1078,22 +1141,22 @@
         <v>29.93</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I8">
         <v>2.14</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>30</v>
@@ -1105,10 +1168,10 @@
         <v>29.83</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="S8" s="2">
         <v>44340.46725055556</v>
@@ -1125,34 +1188,34 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0.77</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>2.44</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I9">
         <v>0.102</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>2.45</v>
@@ -1164,10 +1227,10 @@
         <v>2.43</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="S9" s="2">
         <v>44340.46725723379</v>
@@ -1184,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0.97</v>
@@ -1196,22 +1259,22 @@
         <v>25.71</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I10">
         <v>1.78</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>25.72</v>
@@ -1223,18 +1286,18 @@
         <v>25.62</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="S10" s="2">
         <v>44340.46726291667</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>19</v>
+      <c r="A11">
+        <v>30.14</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1243,57 +1306,57 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1.12</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
+      <c r="G11">
+        <v>29.93</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>2.14</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P11" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>14.01</v>
+      </c>
+      <c r="P11">
+        <v>29.83</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="S11" s="2">
-        <v>44340.48304916389</v>
+        <v>44340.48304916667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>20</v>
+      <c r="A12">
+        <v>3.7</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1302,57 +1365,57 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>0.77</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>2.44</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>0.102</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="N12">
+        <v>2.45</v>
+      </c>
+      <c r="O12">
+        <v>23.92</v>
+      </c>
+      <c r="P12">
+        <v>2.43</v>
       </c>
       <c r="Q12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="S12" s="2">
-        <v>44340.48305499706</v>
+        <v>44340.483055</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>21</v>
+      <c r="A13">
+        <v>30.89</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1361,52 +1424,583 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>0.97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>25.74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>1.78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13">
+        <v>25.72</v>
+      </c>
+      <c r="O13">
+        <v>14.49</v>
+      </c>
+      <c r="P13">
+        <v>25.62</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="2">
+        <v>44340.48306048611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>30.14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>1.12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>29.93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14">
+        <v>2.14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <v>14.01</v>
+      </c>
+      <c r="P14">
+        <v>29.83</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14" t="s">
+        <v>105</v>
+      </c>
+      <c r="S14" s="2">
+        <v>44340.48494206018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>3.7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>0.77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>2.44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>0.102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15">
+        <v>2.45</v>
+      </c>
+      <c r="O15">
+        <v>23.92</v>
+      </c>
+      <c r="P15">
+        <v>2.43</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S15" s="2">
+        <v>44340.48495061343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>30.89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>0.97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>25.75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>1.78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16">
+        <v>25.72</v>
+      </c>
+      <c r="O16">
+        <v>14.5</v>
+      </c>
+      <c r="P16">
+        <v>25.62</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="2">
+        <v>44340.48495700231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>30.14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>1.12</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G17">
+        <v>29.92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17">
+        <v>2.14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17">
+        <v>14.01</v>
+      </c>
+      <c r="P17">
+        <v>29.83</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S17" s="2">
+        <v>44340.48717715278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>3.7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E18">
+        <v>0.77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18">
+        <v>2.44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>0.102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18">
+        <v>2.45</v>
+      </c>
+      <c r="O18">
+        <v>23.92</v>
+      </c>
+      <c r="P18">
+        <v>2.43</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>100</v>
+      </c>
+      <c r="R18" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" s="2">
+        <v>44340.48718270833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>30.89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>0.97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>25.76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19">
+        <v>1.78</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19">
+        <v>25.72</v>
+      </c>
+      <c r="O19">
+        <v>14.5</v>
+      </c>
+      <c r="P19">
+        <v>25.62</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R19" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" s="2">
+        <v>44340.48718891204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" t="s">
+        <v>105</v>
+      </c>
+      <c r="S20" s="2">
+        <v>44340.48891248404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="2">
+        <v>44340.48891981348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13" s="2">
-        <v>44340.48306048458</v>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" t="s">
+        <v>107</v>
+      </c>
+      <c r="S22" s="2">
+        <v>44340.48892763018</v>
       </c>
     </row>
   </sheetData>
